--- a/01_Text/Output/Bad_Records.xlsx
+++ b/01_Text/Output/Bad_Records.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,20 +2261,20 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3735</v>
+        <v>3570</v>
       </c>
       <c r="C77" t="n">
-        <v>3735</v>
+        <v>3590</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="E77" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CurrentNoiseTracesaffectedBrmsVery</t>
+          <t>ShipnoiseFromasternLeveluBar</t>
         </is>
       </c>
     </row>
@@ -2285,20 +2285,20 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3752</v>
+        <v>3735</v>
       </c>
       <c r="C78" t="n">
-        <v>3752</v>
+        <v>3735</v>
       </c>
       <c r="D78" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CurrentNoiseTracesaffectedBrms</t>
+          <t>CurrentNoiseTracesaffectedBrmsVery</t>
         </is>
       </c>
     </row>
@@ -2309,16 +2309,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3802</v>
+        <v>3752</v>
       </c>
       <c r="C79" t="n">
-        <v>3802</v>
+        <v>3752</v>
       </c>
       <c r="D79" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="E79" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2329,24 +2329,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>5065</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2971</v>
+        <v>3802</v>
       </c>
       <c r="C80" t="n">
-        <v>2971</v>
+        <v>3802</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E80" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EarlyclosureBadshotduetoearlyclosure</t>
+          <t>CurrentNoiseTracesaffectedBrms</t>
         </is>
       </c>
     </row>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4080</v>
+        <v>2971</v>
       </c>
       <c r="C81" t="n">
-        <v>4080</v>
+        <v>2971</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingchannelsRMSuptoB</t>
+          <t>EarlyclosureBadshotduetoearlyclosure</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4115</v>
+        <v>4080</v>
       </c>
       <c r="C82" t="n">
-        <v>4115</v>
+        <v>4080</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4130</v>
+        <v>4115</v>
       </c>
       <c r="C83" t="n">
-        <v>4130</v>
+        <v>4115</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CurrentNoiseHittingasecondcurrentbanduptoB</t>
+          <t>CurrentNoiseAffectingchannelsRMSuptoB</t>
         </is>
       </c>
     </row>
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4150</v>
+        <v>4130</v>
       </c>
       <c r="C84" t="n">
-        <v>4150</v>
+        <v>4130</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingchsBand</t>
+          <t>CurrentNoiseHittingasecondcurrentbanduptoB</t>
         </is>
       </c>
     </row>
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4180</v>
+        <v>4150</v>
       </c>
       <c r="C85" t="n">
-        <v>4180</v>
+        <v>4150</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingchsandwith</t>
+          <t>CurrentNoiseAffectingchsBand</t>
         </is>
       </c>
     </row>
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4220</v>
+        <v>4180</v>
       </c>
       <c r="C86" t="n">
-        <v>4220</v>
+        <v>4180</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4275</v>
+        <v>4220</v>
       </c>
       <c r="C87" t="n">
-        <v>4275</v>
+        <v>4220</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4310</v>
+        <v>4275</v>
       </c>
       <c r="C88" t="n">
-        <v>4310</v>
+        <v>4275</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingchswithlevelsof</t>
+          <t>CurrentNoiseAffectingchsandwith</t>
         </is>
       </c>
     </row>
@@ -2549,10 +2549,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4350</v>
+        <v>4310</v>
       </c>
       <c r="C89" t="n">
-        <v>4350</v>
+        <v>4310</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2562,21 +2562,21 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CurrentNoiseCurrentnoisenolongerseen</t>
+          <t>CurrentNoiseAffectingchswithlevelsof</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5073</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3890</v>
+        <v>4350</v>
       </c>
       <c r="C90" t="n">
-        <v>3667</v>
+        <v>4350</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -2586,31 +2586,31 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CurrentNoisestartingatfrontandmovingback</t>
+          <t>CurrentNoiseCurrentnoisenolongerseen</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5085</t>
+          <t>5073</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3788</v>
+        <v>3890</v>
       </c>
       <c r="C91" t="n">
-        <v>3788</v>
+        <v>3667</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingtracesuBrms</t>
+          <t>CurrentNoisestartingatfrontandmovingback</t>
         </is>
       </c>
     </row>
@@ -2621,10 +2621,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3807</v>
+        <v>3788</v>
       </c>
       <c r="C92" t="n">
-        <v>3807</v>
+        <v>3788</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2645,16 +2645,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3829</v>
+        <v>3807</v>
       </c>
       <c r="C93" t="n">
-        <v>3829</v>
+        <v>3807</v>
       </c>
       <c r="D93" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2669,16 +2669,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3862</v>
+        <v>3829</v>
       </c>
       <c r="C94" t="n">
-        <v>3862</v>
+        <v>3829</v>
       </c>
       <c r="D94" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E94" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3875</v>
+        <v>3862</v>
       </c>
       <c r="C95" t="n">
-        <v>3875</v>
+        <v>3862</v>
       </c>
       <c r="D95" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2717,16 +2717,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3890</v>
+        <v>3875</v>
       </c>
       <c r="C96" t="n">
-        <v>3890</v>
+        <v>3875</v>
       </c>
       <c r="D96" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E96" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2741,16 +2741,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3900</v>
+        <v>3890</v>
       </c>
       <c r="C97" t="n">
-        <v>3900</v>
+        <v>3890</v>
       </c>
       <c r="D97" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E97" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2765,16 +2765,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3910</v>
+        <v>3900</v>
       </c>
       <c r="C98" t="n">
-        <v>3910</v>
+        <v>3900</v>
       </c>
       <c r="D98" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E98" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3920</v>
+        <v>3910</v>
       </c>
       <c r="C99" t="n">
-        <v>3920</v>
+        <v>3910</v>
       </c>
       <c r="D99" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E99" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2813,16 +2813,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3940</v>
+        <v>3920</v>
       </c>
       <c r="C100" t="n">
-        <v>3940</v>
+        <v>3920</v>
       </c>
       <c r="D100" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E100" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2837,16 +2837,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3950</v>
+        <v>3940</v>
       </c>
       <c r="C101" t="n">
-        <v>3950</v>
+        <v>3940</v>
       </c>
       <c r="D101" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E101" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3970</v>
+        <v>3950</v>
       </c>
       <c r="C102" t="n">
-        <v>3970</v>
+        <v>3950</v>
       </c>
       <c r="D102" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E102" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2885,16 +2885,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3992</v>
+        <v>3970</v>
       </c>
       <c r="C103" t="n">
-        <v>3992</v>
+        <v>3970</v>
       </c>
       <c r="D103" t="n">
+        <v>230</v>
+      </c>
+      <c r="E103" t="n">
         <v>280</v>
-      </c>
-      <c r="E103" t="n">
-        <v>310</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2905,24 +2905,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5093</t>
+          <t>5085</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2971</v>
+        <v>3992</v>
       </c>
       <c r="C104" t="n">
-        <v>2971</v>
+        <v>3992</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="E104" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>BadshotEarlyfireofguns</t>
+          <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
@@ -2933,10 +2933,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3106</v>
+        <v>2971</v>
       </c>
       <c r="C105" t="n">
-        <v>3106</v>
+        <v>2971</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>BadshotEarlysourcefire</t>
+          <t>BadshotEarlyfireofguns</t>
         </is>
       </c>
     </row>
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3139</v>
+        <v>3106</v>
       </c>
       <c r="C106" t="n">
-        <v>3139</v>
+        <v>3106</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2981,20 +2981,20 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4182</v>
+        <v>3139</v>
       </c>
       <c r="C107" t="n">
-        <v>4272</v>
+        <v>3139</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
+          <t>BadshotEarlysourcefire</t>
         </is>
       </c>
     </row>
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4187</v>
+        <v>4182</v>
       </c>
       <c r="C108" t="n">
-        <v>4275</v>
+        <v>4272</v>
       </c>
       <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
         <v>24</v>
-      </c>
-      <c r="E108" t="n">
-        <v>40</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3029,16 +3029,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4194</v>
+        <v>4187</v>
       </c>
       <c r="C109" t="n">
-        <v>4282</v>
+        <v>4275</v>
       </c>
       <c r="D109" t="n">
+        <v>24</v>
+      </c>
+      <c r="E109" t="n">
         <v>40</v>
-      </c>
-      <c r="E109" t="n">
-        <v>55</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4206</v>
+        <v>4194</v>
       </c>
       <c r="C110" t="n">
-        <v>4289</v>
+        <v>4282</v>
       </c>
       <c r="D110" t="n">
+        <v>40</v>
+      </c>
+      <c r="E110" t="n">
         <v>55</v>
-      </c>
-      <c r="E110" t="n">
-        <v>68</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3077,16 +3077,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4226</v>
+        <v>4206</v>
       </c>
       <c r="C111" t="n">
-        <v>4293</v>
+        <v>4289</v>
       </c>
       <c r="D111" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E111" t="n">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3101,16 +3101,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4240</v>
+        <v>4226</v>
       </c>
       <c r="C112" t="n">
-        <v>4315</v>
+        <v>4293</v>
       </c>
       <c r="D112" t="n">
+        <v>71</v>
+      </c>
+      <c r="E112" t="n">
         <v>91</v>
-      </c>
-      <c r="E112" t="n">
-        <v>118</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3125,16 +3125,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4263</v>
+        <v>4240</v>
       </c>
       <c r="C113" t="n">
-        <v>4328</v>
+        <v>4315</v>
       </c>
       <c r="D113" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="E113" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3149,16 +3149,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4278</v>
+        <v>4263</v>
       </c>
       <c r="C114" t="n">
-        <v>4334</v>
+        <v>4328</v>
       </c>
       <c r="D114" t="n">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E114" t="n">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3173,16 +3173,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4293</v>
+        <v>4278</v>
       </c>
       <c r="C115" t="n">
-        <v>4359</v>
+        <v>4334</v>
       </c>
       <c r="D115" t="n">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E115" t="n">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3197,16 +3197,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4315</v>
+        <v>4293</v>
       </c>
       <c r="C116" t="n">
-        <v>4366</v>
+        <v>4359</v>
       </c>
       <c r="D116" t="n">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E116" t="n">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3221,16 +3221,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4329</v>
+        <v>4315</v>
       </c>
       <c r="C117" t="n">
-        <v>4372</v>
+        <v>4366</v>
       </c>
       <c r="D117" t="n">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E117" t="n">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3245,16 +3245,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4342</v>
+        <v>4329</v>
       </c>
       <c r="C118" t="n">
-        <v>4380</v>
+        <v>4372</v>
       </c>
       <c r="D118" t="n">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E118" t="n">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3269,44 +3269,44 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2812</v>
+        <v>4342</v>
       </c>
       <c r="C119" t="n">
-        <v>2812</v>
+        <v>4380</v>
       </c>
       <c r="D119" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E119" t="n">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>NoiseNoiseattailofbentcable</t>
+          <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>5105</t>
+          <t>5093</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3565</v>
+        <v>2812</v>
       </c>
       <c r="C120" t="n">
-        <v>3565</v>
+        <v>2812</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E120" t="n">
         <v>320</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>BadshotEarlyfireofguns</t>
+          <t>NoiseNoiseattailofbentcable</t>
         </is>
       </c>
     </row>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3174</v>
+        <v>3565</v>
       </c>
       <c r="C121" t="n">
-        <v>3174</v>
+        <v>3565</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>BadShotEarlyfireofguns</t>
+          <t>BadshotEarlyfireofguns</t>
         </is>
       </c>
     </row>
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3114</v>
+        <v>3174</v>
       </c>
       <c r="C122" t="n">
-        <v>3114</v>
+        <v>3174</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3361,48 +3361,48 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>5105</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4403</v>
+        <v>3114</v>
       </c>
       <c r="C123" t="n">
-        <v>4403</v>
+        <v>3114</v>
       </c>
       <c r="D123" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ObjectstrikingstreamerSpikefromobjectstrikeonthese</t>
+          <t>BadShotEarlyfireofguns</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5136</t>
+          <t>5129</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6453</v>
+        <v>4403</v>
       </c>
       <c r="C124" t="n">
-        <v>6453</v>
+        <v>4403</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E124" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>NoiseSlowspeedownshipnoiseaffecting</t>
+          <t>ObjectstrikingstreamerSpikefromobjectstrikeonthese</t>
         </is>
       </c>
     </row>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6433</v>
+        <v>6453</v>
       </c>
       <c r="C125" t="n">
-        <v>6433</v>
+        <v>6453</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -3426,21 +3426,21 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>NoiseOwnshipnoiseaffectingtraces</t>
+          <t>NoiseSlowspeedownshipnoiseaffecting</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5148A</t>
+          <t>5136</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2614</v>
+        <v>6433</v>
       </c>
       <c r="C126" t="n">
-        <v>2614</v>
+        <v>6433</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ShipnoiseFromabeamNoiselevelubar</t>
+          <t>NoiseOwnshipnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2680</v>
+        <v>2614</v>
       </c>
       <c r="C127" t="n">
-        <v>2680</v>
+        <v>2614</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -3474,21 +3474,21 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ShipnoiseNolongerseen</t>
+          <t>ShipnoiseFromabeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5148</t>
+          <t>5148A</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4110</v>
+        <v>2680</v>
       </c>
       <c r="C128" t="n">
-        <v>4110</v>
+        <v>2680</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>BadshotEarlyfireofguns</t>
+          <t>ShipnoiseNolongerseen</t>
         </is>
       </c>
     </row>
@@ -3509,20 +3509,20 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2802</v>
+        <v>4110</v>
       </c>
       <c r="C129" t="n">
-        <v>2802</v>
+        <v>4110</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingoftracesuB</t>
+          <t>BadshotEarlyfireofguns</t>
         </is>
       </c>
     </row>
@@ -3533,16 +3533,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2817</v>
+        <v>2802</v>
       </c>
       <c r="C130" t="n">
-        <v>2817</v>
+        <v>2802</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3557,16 +3557,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2880</v>
+        <v>2817</v>
       </c>
       <c r="C131" t="n">
-        <v>2880</v>
+        <v>2817</v>
       </c>
       <c r="D131" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
       <c r="C132" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
       <c r="D132" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E132" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3605,68 +3605,68 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3070</v>
+        <v>3000</v>
       </c>
       <c r="C133" t="n">
-        <v>3070</v>
+        <v>3000</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E133" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Currentnoiseceased</t>
+          <t>CurrentNoiseAffectingoftracesuB</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5160A</t>
+          <t>5148</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4920</v>
+        <v>3070</v>
       </c>
       <c r="C134" t="n">
-        <v>4920</v>
+        <v>3070</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>CurrentNoiseTracesaffectedBrms</t>
+          <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>5169</t>
+          <t>5160A</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3990</v>
+        <v>4920</v>
       </c>
       <c r="C135" t="n">
-        <v>3990</v>
+        <v>4920</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Badshotdtnav</t>
+          <t>CurrentNoiseTracesaffectedBrms</t>
         </is>
       </c>
     </row>
@@ -3677,10 +3677,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="C136" t="n">
-        <v>3983</v>
+        <v>3990</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -3690,31 +3690,31 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>BadshotdtNavigationsystem</t>
+          <t>Badshotdtnav</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5172</t>
+          <t>5169</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1210</v>
+        <v>3988</v>
       </c>
       <c r="C137" t="n">
-        <v>1210</v>
+        <v>3983</v>
       </c>
       <c r="D137" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>320</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>TurnNoiseTailendofthestreamerstillinturndt</t>
+          <t>BadshotdtNavigationsystem</t>
         </is>
       </c>
     </row>
@@ -3725,20 +3725,20 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="C138" t="n">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="D138" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E138" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ShipNoiseFromaheaduB</t>
+          <t>TurnNoiseTailendofthestreamerstillinturndt</t>
         </is>
       </c>
     </row>
@@ -3749,16 +3749,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2080</v>
+        <v>2000</v>
       </c>
       <c r="C139" t="n">
-        <v>2080</v>
+        <v>2000</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E139" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2120</v>
+        <v>2080</v>
       </c>
       <c r="C140" t="n">
-        <v>2120</v>
+        <v>2080</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ShipNoiseFromabeamuB</t>
+          <t>ShipNoiseFromaheaduB</t>
         </is>
       </c>
     </row>
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2200</v>
+        <v>2120</v>
       </c>
       <c r="C141" t="n">
-        <v>2200</v>
+        <v>2120</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ShipNoiseFromasternuBfading</t>
+          <t>ShipNoiseFromabeamuB</t>
         </is>
       </c>
     </row>
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2350</v>
+        <v>2200</v>
       </c>
       <c r="C142" t="n">
-        <v>2350</v>
+        <v>2200</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ShipNoiseGone</t>
+          <t>ShipNoiseFromasternuBfading</t>
         </is>
       </c>
     </row>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3842</v>
+        <v>2350</v>
       </c>
       <c r="C143" t="n">
-        <v>3842</v>
+        <v>2350</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ShipNoiseFromabeamuB</t>
+          <t>ShipNoiseGone</t>
         </is>
       </c>
     </row>
@@ -3869,10 +3869,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3985</v>
+        <v>3842</v>
       </c>
       <c r="C144" t="n">
-        <v>3985</v>
+        <v>3842</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3893,10 +3893,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4055</v>
+        <v>3985</v>
       </c>
       <c r="C145" t="n">
-        <v>4055</v>
+        <v>3985</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ShipNoiseFromasternuB</t>
+          <t>ShipNoiseFromabeamuB</t>
         </is>
       </c>
     </row>
@@ -3917,10 +3917,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4070</v>
+        <v>4055</v>
       </c>
       <c r="C146" t="n">
-        <v>4070</v>
+        <v>4055</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ShipNoisenolongerobserved</t>
+          <t>ShipNoiseFromasternuB</t>
         </is>
       </c>
     </row>
@@ -3941,20 +3941,20 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4988</v>
+        <v>4070</v>
       </c>
       <c r="C147" t="n">
-        <v>4988</v>
+        <v>4070</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>CurrentnoiseNoisereachesB</t>
+          <t>ShipNoisenolongerobserved</t>
         </is>
       </c>
     </row>
@@ -3965,10 +3965,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5015</v>
+        <v>4988</v>
       </c>
       <c r="C148" t="n">
-        <v>5015</v>
+        <v>4988</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3978,55 +3978,55 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>CurrentnoiseNoisereachesBaveragewith</t>
+          <t>CurrentnoiseNoisereachesB</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>5177</t>
+          <t>5172</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1760</v>
+        <v>5015</v>
       </c>
       <c r="C149" t="n">
-        <v>1900</v>
+        <v>5015</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>NoisytracesCurrentnoiseuptoubarmoving</t>
+          <t>CurrentnoiseNoisereachesBaveragewith</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>5177</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1882</v>
+        <v>1760</v>
       </c>
       <c r="C150" t="n">
-        <v>1882</v>
+        <v>1900</v>
       </c>
       <c r="D150" t="n">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ShipnoiseFromabeamNoiselevelubar</t>
+          <t>NoisytracesCurrentnoiseuptoubarmoving</t>
         </is>
       </c>
     </row>
@@ -4037,20 +4037,20 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1916</v>
+        <v>1882</v>
       </c>
       <c r="C151" t="n">
-        <v>1916</v>
+        <v>1882</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="E151" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Shipnoisenolongerappearent</t>
+          <t>ShipnoiseFromabeamNoiselevelubar</t>
         </is>
       </c>
     </row>
@@ -4061,20 +4061,20 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2277</v>
+        <v>1916</v>
       </c>
       <c r="C152" t="n">
-        <v>2277</v>
+        <v>1916</v>
       </c>
       <c r="D152" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>320</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ShipnoiseFromasternNoiselevelubar</t>
+          <t>Shipnoisenolongerappearent</t>
         </is>
       </c>
     </row>
@@ -4085,13 +4085,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2317</v>
+        <v>2277</v>
       </c>
       <c r="C153" t="n">
-        <v>2317</v>
+        <v>2277</v>
       </c>
       <c r="D153" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E153" t="n">
         <v>320</v>
@@ -4109,13 +4109,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2352</v>
+        <v>2317</v>
       </c>
       <c r="C154" t="n">
-        <v>2352</v>
+        <v>2317</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E154" t="n">
         <v>320</v>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2401</v>
+        <v>2352</v>
       </c>
       <c r="C155" t="n">
-        <v>2401</v>
+        <v>2352</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ShipnoiseFromasternNoiselevel</t>
+          <t>ShipnoiseFromasternNoiselevelubar</t>
         </is>
       </c>
     </row>
@@ -4157,10 +4157,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2500</v>
+        <v>2401</v>
       </c>
       <c r="C156" t="n">
-        <v>2500</v>
+        <v>2401</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -4170,21 +4170,21 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Shipnoisenolongerappearent</t>
+          <t>ShipnoiseFromasternNoiselevel</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>5196</t>
+          <t>5184</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3546</v>
+        <v>2500</v>
       </c>
       <c r="C157" t="n">
-        <v>3545</v>
+        <v>2500</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>BadshotLowpressurecompressordroppedout</t>
+          <t>Shipnoisenolongerappearent</t>
         </is>
       </c>
     </row>
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4090</v>
+        <v>3546</v>
       </c>
       <c r="C158" t="n">
-        <v>4090</v>
+        <v>3545</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ShipnoiseFromabeamNoiselevelubar</t>
+          <t>BadshotLowpressurecompressordroppedout</t>
         </is>
       </c>
     </row>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3966</v>
+        <v>4090</v>
       </c>
       <c r="C159" t="n">
-        <v>3966</v>
+        <v>4090</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -4242,55 +4242,55 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ShipnoiseNolongerapparent</t>
+          <t>ShipnoiseFromabeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>5921A</t>
+          <t>5196</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3005</v>
+        <v>3966</v>
       </c>
       <c r="C160" t="n">
-        <v>3005</v>
+        <v>3966</v>
       </c>
       <c r="D160" t="n">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>StreamerhitSomethinggeneratingintermittentspikes</t>
+          <t>ShipnoiseNolongerapparent</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>5931A</t>
+          <t>5921A</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2644</v>
+        <v>3005</v>
       </c>
       <c r="C161" t="n">
-        <v>2644</v>
+        <v>3005</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E161" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Currentnoiseaffectingtraces</t>
+          <t>StreamerhitSomethinggeneratingintermittentspikes</t>
         </is>
       </c>
     </row>
@@ -4301,10 +4301,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2716</v>
+        <v>2644</v>
       </c>
       <c r="C162" t="n">
-        <v>2716</v>
+        <v>2644</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Currentnoisenowaffectingtraces</t>
+          <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2749</v>
+        <v>2716</v>
       </c>
       <c r="C163" t="n">
-        <v>2749</v>
+        <v>2716</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -4349,10 +4349,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2801</v>
+        <v>2749</v>
       </c>
       <c r="C164" t="n">
-        <v>2801</v>
+        <v>2749</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2891</v>
+        <v>2801</v>
       </c>
       <c r="C165" t="n">
-        <v>2891</v>
+        <v>2801</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -4386,21 +4386,21 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>CurrentnoiseNowceased</t>
+          <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>5939A</t>
+          <t>5931A</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2808</v>
+        <v>2891</v>
       </c>
       <c r="C166" t="n">
-        <v>2808</v>
+        <v>2891</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>CurrentNoiseaffectingtraces</t>
+          <t>CurrentnoiseNowceased</t>
         </is>
       </c>
     </row>
@@ -4421,10 +4421,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2847</v>
+        <v>2808</v>
       </c>
       <c r="C167" t="n">
-        <v>2847</v>
+        <v>2808</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Currentnoisenowaffectingtraces</t>
+          <t>CurrentNoiseaffectingtraces</t>
         </is>
       </c>
     </row>
@@ -4445,10 +4445,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2922</v>
+        <v>2847</v>
       </c>
       <c r="C168" t="n">
-        <v>2922</v>
+        <v>2847</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2954</v>
+        <v>2922</v>
       </c>
       <c r="C169" t="n">
-        <v>2954</v>
+        <v>2922</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Currentnoiseaffectingtraces</t>
+          <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
@@ -4493,10 +4493,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3021</v>
+        <v>2954</v>
       </c>
       <c r="C170" t="n">
-        <v>3021</v>
+        <v>2954</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -4506,21 +4506,21 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Currentnoisenolongerapparent</t>
+          <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>5939A</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2998</v>
+        <v>3021</v>
       </c>
       <c r="C171" t="n">
-        <v>2998</v>
+        <v>3021</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -4530,21 +4530,21 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>TurnNoiseStreamerstillinturnattailend</t>
+          <t>Currentnoisenolongerapparent</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5939</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3195</v>
+        <v>2998</v>
       </c>
       <c r="C172" t="n">
-        <v>3195</v>
+        <v>2998</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ShipnoiseabeamoftailofstreameruB</t>
+          <t>TurnNoiseStreamerstillinturnattailend</t>
         </is>
       </c>
     </row>
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3022</v>
+        <v>3195</v>
       </c>
       <c r="C173" t="n">
-        <v>3022</v>
+        <v>3195</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -4578,21 +4578,21 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Currentnoisetracesaffected</t>
+          <t>ShipnoiseabeamoftailofstreameruB</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5955</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2962</v>
+        <v>3022</v>
       </c>
       <c r="C174" t="n">
-        <v>2962</v>
+        <v>3022</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Currentnoiseaffectingtraces</t>
+          <t>Currentnoisetracesaffected</t>
         </is>
       </c>
     </row>
@@ -4613,10 +4613,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3089</v>
+        <v>2962</v>
       </c>
       <c r="C175" t="n">
-        <v>3089</v>
+        <v>2962</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Currentnoisenowaffectingtraces</t>
+          <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3218</v>
+        <v>3089</v>
       </c>
       <c r="C176" t="n">
-        <v>3218</v>
+        <v>3089</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -4650,31 +4650,31 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Currentnoiseceased</t>
+          <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>5955</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3141</v>
+        <v>3218</v>
       </c>
       <c r="C177" t="n">
-        <v>3141</v>
+        <v>3218</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingtracesuBrms</t>
+          <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3170</v>
+        <v>3141</v>
       </c>
       <c r="C178" t="n">
-        <v>3170</v>
+        <v>3141</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4709,16 +4709,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3195</v>
+        <v>3170</v>
       </c>
       <c r="C179" t="n">
-        <v>3195</v>
+        <v>3170</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4733,16 +4733,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3205</v>
+        <v>3195</v>
       </c>
       <c r="C180" t="n">
-        <v>3205</v>
+        <v>3195</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4757,16 +4757,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3217</v>
+        <v>3205</v>
       </c>
       <c r="C181" t="n">
-        <v>3217</v>
+        <v>3205</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4781,16 +4781,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3258</v>
+        <v>3217</v>
       </c>
       <c r="C182" t="n">
-        <v>3258</v>
+        <v>3217</v>
       </c>
       <c r="D182" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4805,16 +4805,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3277</v>
+        <v>3258</v>
       </c>
       <c r="C183" t="n">
-        <v>3277</v>
+        <v>3258</v>
       </c>
       <c r="D183" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E183" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4829,16 +4829,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3325</v>
+        <v>3277</v>
       </c>
       <c r="C184" t="n">
-        <v>3325</v>
+        <v>3277</v>
       </c>
       <c r="D184" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E184" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4849,24 +4849,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>5961</t>
+          <t>5958</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3427</v>
+        <v>3325</v>
       </c>
       <c r="C185" t="n">
-        <v>3427</v>
+        <v>3325</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E185" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ShipnoiseFromaheadNoiselevelubarmoveout</t>
+          <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
@@ -4877,10 +4877,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3405</v>
+        <v>3427</v>
       </c>
       <c r="C186" t="n">
-        <v>3405</v>
+        <v>3427</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -4890,21 +4890,21 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Shipnoisenolongerobserved</t>
+          <t>ShipnoiseFromaheadNoiselevelubarmoveout</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>5966</t>
+          <t>5961</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3181</v>
+        <v>3405</v>
       </c>
       <c r="C187" t="n">
-        <v>3181</v>
+        <v>3405</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Currentnoiseaffectingtraces</t>
+          <t>Shipnoisenolongerobserved</t>
         </is>
       </c>
     </row>
@@ -4925,10 +4925,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3267</v>
+        <v>3181</v>
       </c>
       <c r="C188" t="n">
-        <v>3267</v>
+        <v>3181</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>CurrentnoiseNowaffectingtraces</t>
+          <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
@@ -4949,10 +4949,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3413</v>
+        <v>3267</v>
       </c>
       <c r="C189" t="n">
-        <v>3413</v>
+        <v>3267</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -4962,21 +4962,21 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Currentnoiseceased</t>
+          <t>CurrentnoiseNowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>5966</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3296</v>
+        <v>3413</v>
       </c>
       <c r="C190" t="n">
-        <v>3296</v>
+        <v>3413</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Currentnoiseaffectingtraces</t>
+          <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>3241</v>
+        <v>3296</v>
       </c>
       <c r="C191" t="n">
-        <v>3241</v>
+        <v>3296</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -5010,31 +5010,31 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Currentnoisenowaffectingtraces</t>
+          <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>5986</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3415</v>
+        <v>3241</v>
       </c>
       <c r="C192" t="n">
-        <v>3415</v>
+        <v>3241</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>CurrentNoiseAffectingtracesuBrms</t>
+          <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
@@ -5045,16 +5045,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3422</v>
+        <v>3415</v>
       </c>
       <c r="C193" t="n">
-        <v>3422</v>
+        <v>3415</v>
       </c>
       <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
         <v>60</v>
-      </c>
-      <c r="E193" t="n">
-        <v>120</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5069,16 +5069,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3460</v>
+        <v>3422</v>
       </c>
       <c r="C194" t="n">
-        <v>3460</v>
+        <v>3422</v>
       </c>
       <c r="D194" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E194" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5093,16 +5093,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3485</v>
+        <v>3460</v>
       </c>
       <c r="C195" t="n">
-        <v>3485</v>
+        <v>3460</v>
       </c>
       <c r="D195" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E195" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5117,10 +5117,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3495</v>
+        <v>3485</v>
       </c>
       <c r="C196" t="n">
-        <v>3495</v>
+        <v>3485</v>
       </c>
       <c r="D196" t="n">
         <v>140</v>
@@ -5130,53 +5130,77 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>CurrentNoiseCurrentnoisegone</t>
+          <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>5991</t>
+          <t>5986</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3330</v>
+        <v>3495</v>
       </c>
       <c r="C197" t="n">
-        <v>3290</v>
+        <v>3495</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E197" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>CurrentNoiseVeryslightcurrentnoiseaffectedonly</t>
+          <t>CurrentNoiseCurrentnoisegone</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>5991</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3330</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3290</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>60</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>CurrentNoiseVeryslightcurrentnoiseaffectedonly</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
           <t>5996</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B199" t="n">
         <v>3514</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C199" t="n">
         <v>3514</v>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>320</v>
-      </c>
-      <c r="F198" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>320</v>
+      </c>
+      <c r="F199" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>

--- a/01_Text/Output/Bad_Records.xlsx
+++ b/01_Text/Output/Bad_Records.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bad Records" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Turn Lines" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Turn Noise Lines" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +50,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,4787 +429,4795 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="100" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Line_Number</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Shot_Min</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Shot_Max</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Rcv_Min</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Rcv_Max</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>5005</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>3501</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>3501</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>320</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>5005</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>3602</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>3602</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>320</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>5005</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>3671</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>3671</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>320</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>5005</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>3768</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>3768</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>320</v>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenolongerapparent</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>5013</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>3519</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>3519</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuptoB</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>5013</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>3550</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>3550</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuptoB</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>5013</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>3590</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>3590</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>320</v>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>5013</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>3615</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>3615</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowaffectingtracesupto</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>5013</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>3640</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>3640</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowaffectingtracesupto</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>5013</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>3650</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>3650</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>320</v>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseCurrentnoisegone</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>5017</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>3530</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>3530</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>320</v>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracespeaksto</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>5017</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>3444</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>3444</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>320</v>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>5017</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>3407</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>3407</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>320</v>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>5017</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>3299</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
         <v>3299</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>320</v>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>3684</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>3684</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseuB</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>3770</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>3770</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseuB</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2" t="n">
         <v>4163</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>4163</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromAbeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2" t="n">
         <v>4219</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
         <v>4219</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromAbeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="2" t="n">
         <v>4248</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
         <v>4248</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromAbeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>4282</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
         <v>4282</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromAbeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="2" t="n">
         <v>4300</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
         <v>4300</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="E22" t="n">
-        <v>320</v>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="E22" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromAbeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="2" t="n">
         <v>4310</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
         <v>4310</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>320</v>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>Shipnoisenolongerobserved</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>5025</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="2" t="n">
         <v>4060</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
         <v>4060</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>320</v>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromabeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>5025</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>3980</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
         <v>3980</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>320</v>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="D25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromabeamslightlyaheadNoiselevel</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>5025</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="2" t="n">
         <v>3669</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
         <v>3669</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseuB</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="2" t="n">
         <v>3603</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
         <v>3603</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>320</v>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>BadshotEarlyfireofGuns</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="2" t="n">
         <v>3732</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
         <v>3732</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="2" t="n">
         <v>3751</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
         <v>3751</v>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="2" t="n">
         <v>3802</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
         <v>3802</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="2" t="n">
         <v>3832</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
         <v>3832</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="2" t="n">
         <v>3842</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
         <v>3842</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="2" t="n">
         <v>3857</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
         <v>3857</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingoftracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="2" t="n">
         <v>3882</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
         <v>3882</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingoftracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>5029</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="2" t="n">
         <v>3904</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
         <v>3904</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingoftracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>5041A</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="2" t="n">
         <v>3710</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
         <v>3710</v>
       </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>5041A</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="2" t="n">
         <v>3627</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
         <v>3627</v>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>5041A</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="2" t="n">
         <v>3596</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
         <v>3596</v>
       </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>5045</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="2" t="n">
         <v>3730</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
         <v>3730</v>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>320</v>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseBeginsaffectingfrontofstreamer</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>5045</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="2" t="n">
         <v>3885</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
         <v>3885</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesupto</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>5045</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="2" t="n">
         <v>3935</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
         <v>3935</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesupto</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>5045</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="2" t="n">
         <v>3990</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
         <v>3990</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesupto</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>5045</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="2" t="n">
         <v>4010</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
         <v>4010</v>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>320</v>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="D43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseCurrentnoisenolongerseen</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>5045</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="2" t="n">
         <v>4235</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
         <v>4235</v>
       </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>320</v>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="D44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromasternNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="2" t="n">
         <v>4301</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
         <v>4301</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="2" t="n">
         <v>4294</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
         <v>4294</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="2" t="n">
         <v>4285</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
         <v>4285</v>
       </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrmsTIMLineAcquisitionReport</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="2" t="n">
         <v>4277</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
         <v>4277</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="2" t="n">
         <v>4271</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
         <v>4271</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="2" t="n">
         <v>4267</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
         <v>4267</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="2" t="n">
         <v>4260</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
         <v>4260</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="2" t="n">
         <v>4256</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
         <v>4256</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="2" t="n">
         <v>4197</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="2" t="n">
         <v>4197</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="2" t="n">
         <v>3938</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
         <v>3938</v>
       </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="2" t="n">
         <v>3922</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
         <v>3922</v>
       </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="D55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="2" t="n">
         <v>3893</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
         <v>3893</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="2" t="n">
         <v>3882</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
         <v>3882</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="2" t="n">
         <v>3863</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
         <v>3863</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="2" t="n">
         <v>3855</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="2" t="n">
         <v>3855</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrmsTIMLineAcquisitionReport</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="2" t="n">
         <v>3832</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="2" t="n">
         <v>3832</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="2" t="n">
         <v>3823</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="2" t="n">
         <v>3823</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="2" t="n">
         <v>3808</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="2" t="n">
         <v>3808</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="2" t="n">
         <v>3790</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="2" t="n">
         <v>3790</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="2" t="n">
         <v>3781</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="2" t="n">
         <v>3781</v>
       </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="D64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="2" t="n">
         <v>3778</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
         <v>3778</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="2" t="n">
         <v>3770</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
         <v>3770</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="2" t="n">
         <v>3764</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="2" t="n">
         <v>3764</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>5049</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="2" t="n">
         <v>3747</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
         <v>3747</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>5053</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="2" t="n">
         <v>3760</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="2" t="n">
         <v>3785</v>
       </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="D69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseuB</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>5053</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="2" t="n">
         <v>3786</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
         <v>3799</v>
       </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="D70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseuB</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>5053</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>320</v>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="D71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowaffectingmostchannelstosome</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>5053</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="2" t="n">
         <v>3817</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
         <v>4030</v>
       </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>320</v>
-      </c>
-      <c r="F72" t="inlineStr">
+      <c r="D72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseStillaffectingwholestreamerbut</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>5053</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="2" t="n">
         <v>4030</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="2" t="n">
         <v>4030</v>
       </c>
-      <c r="D73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>320</v>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="D73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="2" t="n">
         <v>2840</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="2" t="n">
         <v>2941</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E74" t="n">
-        <v>320</v>
-      </c>
-      <c r="F74" t="inlineStr">
+      <c r="E74" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
         <is>
           <t>NoisyTracesTurnnoisestreamerstillinaturn</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="2" t="n">
         <v>2942</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
         <v>2950</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="E75" t="n">
-        <v>320</v>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="E75" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
         <is>
           <t>NoisyTracesTurnnoisestreamerstillinaturn</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="2" t="n">
         <v>4433</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
         <v>4434</v>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>320</v>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="D76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>GundisabledBadshots</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="2" t="n">
         <v>3570</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="2" t="n">
         <v>3590</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="E77" t="n">
-        <v>320</v>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="E77" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromasternLeveluBar</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="2" t="n">
         <v>3735</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
         <v>3735</v>
       </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="D78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseTracesaffectedBrmsVery</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="2" t="n">
         <v>3752</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="2" t="n">
         <v>3752</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseTracesaffectedBrms</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="2" t="n">
         <v>3802</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="2" t="n">
         <v>3802</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseTracesaffectedBrms</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="2" t="n">
         <v>2971</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="2" t="n">
         <v>2971</v>
       </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>320</v>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="D81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>EarlyclosureBadshotduetoearlyclosure</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="2" t="n">
         <v>4080</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="2" t="n">
         <v>4080</v>
       </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>320</v>
-      </c>
-      <c r="F82" t="inlineStr">
+      <c r="D82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingchannelsRMSuptoB</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="2" t="n">
         <v>4115</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="2" t="n">
         <v>4115</v>
       </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>320</v>
-      </c>
-      <c r="F83" t="inlineStr">
+      <c r="D83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingchannelsRMSuptoB</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="2" t="n">
         <v>4130</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="2" t="n">
         <v>4130</v>
       </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>320</v>
-      </c>
-      <c r="F84" t="inlineStr">
+      <c r="D84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseHittingasecondcurrentbanduptoB</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="2" t="n">
         <v>4150</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="2" t="n">
         <v>4150</v>
       </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>320</v>
-      </c>
-      <c r="F85" t="inlineStr">
+      <c r="D85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingchsBand</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="2" t="n">
         <v>4180</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="2" t="n">
         <v>4180</v>
       </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>320</v>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="D86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingchsandwith</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="2" t="n">
         <v>4220</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="2" t="n">
         <v>4220</v>
       </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>320</v>
-      </c>
-      <c r="F87" t="inlineStr">
+      <c r="D87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingchsandwith</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="2" t="n">
         <v>4275</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="2" t="n">
         <v>4275</v>
       </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>320</v>
-      </c>
-      <c r="F88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingchsandwith</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="2" t="n">
         <v>4310</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="2" t="n">
         <v>4310</v>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>320</v>
-      </c>
-      <c r="F89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingchswithlevelsof</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="2" t="n">
         <v>4350</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="2" t="n">
         <v>4350</v>
       </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>320</v>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="D90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseCurrentnoisenolongerseen</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>5073</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="2" t="n">
         <v>3890</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="2" t="n">
         <v>3667</v>
       </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>320</v>
-      </c>
-      <c r="F91" t="inlineStr">
+      <c r="D91" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
         <is>
           <t>CurrentNoisestartingatfrontandmovingback</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="2" t="n">
         <v>3788</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="2" t="n">
         <v>3788</v>
       </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="D92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="2" t="n">
         <v>3807</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
         <v>3807</v>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="2" t="n">
         <v>3829</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="2" t="n">
         <v>3829</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="2" t="n">
         <v>3862</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="2" t="n">
         <v>3862</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="2" t="n">
         <v>3875</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
         <v>3875</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="2" t="n">
         <v>3890</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="2" t="n">
         <v>3890</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="2" t="n">
         <v>3900</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="2" t="n">
         <v>3900</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="2" t="n">
         <v>3910</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="2" t="n">
         <v>3910</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="2" t="n">
         <v>3920</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="2" t="n">
         <v>3920</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="2" t="n">
         <v>3940</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="2" t="n">
         <v>3940</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="2" t="n">
         <v>3950</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="2" t="n">
         <v>3950</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="2" t="n">
         <v>3970</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="2" t="n">
         <v>3970</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>5085</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="2" t="n">
         <v>3992</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="2" t="n">
         <v>3992</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104" s="2" t="n">
         <v>310</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="2" t="n">
         <v>2971</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="2" t="n">
         <v>2971</v>
       </c>
-      <c r="D105" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>320</v>
-      </c>
-      <c r="F105" t="inlineStr">
+      <c r="D105" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>BadshotEarlyfireofguns</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="2" t="n">
         <v>3106</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="2" t="n">
         <v>3106</v>
       </c>
-      <c r="D106" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>320</v>
-      </c>
-      <c r="F106" t="inlineStr">
+      <c r="D106" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>BadshotEarlysourcefire</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="2" t="n">
         <v>3139</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="2" t="n">
         <v>3139</v>
       </c>
-      <c r="D107" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>320</v>
-      </c>
-      <c r="F107" t="inlineStr">
+      <c r="D107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>BadshotEarlysourcefire</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="2" t="n">
         <v>4182</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="2" t="n">
         <v>4272</v>
       </c>
-      <c r="D108" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" t="n">
+      <c r="D108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="2" t="n">
         <v>4187</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="2" t="n">
         <v>4275</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="2" t="n">
         <v>4194</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="2" t="n">
         <v>4282</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="2" t="n">
         <v>4206</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="2" t="n">
         <v>4289</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="2" t="n">
         <v>4226</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="2" t="n">
         <v>4293</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="2" t="n">
         <v>4240</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="2" t="n">
         <v>4315</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="2" t="n">
         <v>4263</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="2" t="n">
         <v>4328</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="2" t="n">
         <v>4278</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="2" t="n">
         <v>4334</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="2" t="n">
         <v>4293</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="2" t="n">
         <v>4359</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="2" t="n">
         <v>4315</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="2" t="n">
         <v>4366</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="2" t="n">
         <v>4329</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="2" t="n">
         <v>4372</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F118" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="2" t="n">
         <v>4342</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="2" t="n">
         <v>4380</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" s="2" t="inlineStr">
         <is>
           <t>CrosscurrentnoiseEdittracesduetohighcurrentnoise</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="2" t="n">
         <v>2812</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="2" t="n">
         <v>2812</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="E120" t="n">
-        <v>320</v>
-      </c>
-      <c r="F120" t="inlineStr">
+      <c r="E120" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>NoiseNoiseattailofbentcable</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>5105</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="2" t="n">
         <v>3565</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="2" t="n">
         <v>3565</v>
       </c>
-      <c r="D121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" t="n">
-        <v>320</v>
-      </c>
-      <c r="F121" t="inlineStr">
+      <c r="D121" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
         <is>
           <t>BadshotEarlyfireofguns</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>5105</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="2" t="n">
         <v>3174</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="2" t="n">
         <v>3174</v>
       </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>320</v>
-      </c>
-      <c r="F122" t="inlineStr">
+      <c r="D122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
         <is>
           <t>BadShotEarlyfireofguns</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>5105</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="2" t="n">
         <v>3114</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="2" t="n">
         <v>3114</v>
       </c>
-      <c r="D123" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>320</v>
-      </c>
-      <c r="F123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>BadShotEarlyfireofguns</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>5129</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="2" t="n">
         <v>4403</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="2" t="n">
         <v>4403</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>ObjectstrikingstreamerSpikefromobjectstrikeonthese</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>5136</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="2" t="n">
         <v>6453</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="2" t="n">
         <v>6453</v>
       </c>
-      <c r="D125" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>320</v>
-      </c>
-      <c r="F125" t="inlineStr">
+      <c r="D125" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
         <is>
           <t>NoiseSlowspeedownshipnoiseaffecting</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>5136</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="2" t="n">
         <v>6433</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="2" t="n">
         <v>6433</v>
       </c>
-      <c r="D126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>320</v>
-      </c>
-      <c r="F126" t="inlineStr">
+      <c r="D126" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
         <is>
           <t>NoiseOwnshipnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>5148A</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="2" t="n">
         <v>2614</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="2" t="n">
         <v>2614</v>
       </c>
-      <c r="D127" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>320</v>
-      </c>
-      <c r="F127" t="inlineStr">
+      <c r="D127" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromabeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>5148A</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="2" t="n">
         <v>2680</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="2" t="n">
         <v>2680</v>
       </c>
-      <c r="D128" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>320</v>
-      </c>
-      <c r="F128" t="inlineStr">
+      <c r="D128" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseNolongerseen</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>5148</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="2" t="n">
         <v>4110</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="2" t="n">
         <v>4110</v>
       </c>
-      <c r="D129" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>320</v>
-      </c>
-      <c r="F129" t="inlineStr">
+      <c r="D129" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
         <is>
           <t>BadshotEarlyfireofguns</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>5148</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="2" t="n">
         <v>2802</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="2" t="n">
         <v>2802</v>
       </c>
-      <c r="D130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" t="n">
+      <c r="D130" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F130" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingoftracesuB</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>5148</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="2" t="n">
         <v>2817</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="2" t="n">
         <v>2817</v>
       </c>
-      <c r="D131" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="D131" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F131" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingoftracesuB</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>5148</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="2" t="n">
         <v>2880</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="2" t="n">
         <v>2880</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingoftracesuB</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>5148</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingoftracesuB</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>5148</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="2" t="n">
         <v>3070</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="2" t="n">
         <v>3070</v>
       </c>
-      <c r="D134" t="n">
-        <v>1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>320</v>
-      </c>
-      <c r="F134" t="inlineStr">
+      <c r="D134" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>5160A</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="2" t="n">
         <v>4920</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="2" t="n">
         <v>4920</v>
       </c>
-      <c r="D135" t="n">
-        <v>1</v>
-      </c>
-      <c r="E135" t="n">
+      <c r="D135" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F135" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseTracesaffectedBrms</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>5169</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="2" t="n">
         <v>3990</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="2" t="n">
         <v>3990</v>
       </c>
-      <c r="D136" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>320</v>
-      </c>
-      <c r="F136" t="inlineStr">
+      <c r="D136" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>Badshotdtnav</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>5169</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="2" t="n">
         <v>3988</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="2" t="n">
         <v>3983</v>
       </c>
-      <c r="D137" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>320</v>
-      </c>
-      <c r="F137" t="inlineStr">
+      <c r="D137" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
         <is>
           <t>BadshotdtNavigationsystem</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="2" t="n">
         <v>1210</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="2" t="n">
         <v>1210</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="E138" t="n">
-        <v>320</v>
-      </c>
-      <c r="F138" t="inlineStr">
+      <c r="E138" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>TurnNoiseTailendofthestreamerstillinturndt</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseFromaheaduB</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="2" t="n">
         <v>2080</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="2" t="n">
         <v>2080</v>
       </c>
-      <c r="D140" t="n">
-        <v>1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>320</v>
-      </c>
-      <c r="F140" t="inlineStr">
+      <c r="D140" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseFromaheaduB</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="2" t="n">
         <v>2120</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="2" t="n">
         <v>2120</v>
       </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>320</v>
-      </c>
-      <c r="F141" t="inlineStr">
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseFromabeamuB</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="2" t="n">
         <v>2200</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="2" t="n">
         <v>2200</v>
       </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>320</v>
-      </c>
-      <c r="F142" t="inlineStr">
+      <c r="D142" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseFromasternuBfading</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="2" t="n">
         <v>2350</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="2" t="n">
         <v>2350</v>
       </c>
-      <c r="D143" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>320</v>
-      </c>
-      <c r="F143" t="inlineStr">
+      <c r="D143" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseGone</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="2" t="n">
         <v>3842</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="2" t="n">
         <v>3842</v>
       </c>
-      <c r="D144" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" t="n">
-        <v>320</v>
-      </c>
-      <c r="F144" t="inlineStr">
+      <c r="D144" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseFromabeamuB</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="2" t="n">
         <v>3985</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="2" t="n">
         <v>3985</v>
       </c>
-      <c r="D145" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" t="n">
-        <v>320</v>
-      </c>
-      <c r="F145" t="inlineStr">
+      <c r="D145" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseFromabeamuB</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="2" t="n">
         <v>4055</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="2" t="n">
         <v>4055</v>
       </c>
-      <c r="D146" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>320</v>
-      </c>
-      <c r="F146" t="inlineStr">
+      <c r="D146" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
         <is>
           <t>ShipNoiseFromasternuB</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="2" t="n">
         <v>4070</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="2" t="n">
         <v>4070</v>
       </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>320</v>
-      </c>
-      <c r="F147" t="inlineStr">
+      <c r="D147" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
         <is>
           <t>ShipNoisenolongerobserved</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="2" t="n">
         <v>4988</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="2" t="n">
         <v>4988</v>
       </c>
-      <c r="D148" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" t="n">
+      <c r="D148" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F148" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNoisereachesB</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="2" t="n">
         <v>5015</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="2" t="n">
         <v>5015</v>
       </c>
-      <c r="D149" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" t="n">
+      <c r="D149" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNoisereachesBaveragewith</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="2" t="inlineStr">
         <is>
           <t>5177</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="2" t="n">
         <v>1760</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="2" t="n">
         <v>1900</v>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="n">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>NoisytracesCurrentnoiseuptoubarmoving</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="2" t="n">
         <v>1882</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="2" t="n">
         <v>1882</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromabeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="2" t="n">
         <v>1916</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="2" t="n">
         <v>1916</v>
       </c>
-      <c r="D152" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>320</v>
-      </c>
-      <c r="F152" t="inlineStr">
+      <c r="D152" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>Shipnoisenolongerappearent</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="2" t="n">
         <v>2277</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="2" t="n">
         <v>2277</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="E153" t="n">
-        <v>320</v>
-      </c>
-      <c r="F153" t="inlineStr">
+      <c r="E153" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromasternNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="2" t="n">
         <v>2317</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="2" t="n">
         <v>2317</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E154" t="n">
-        <v>320</v>
-      </c>
-      <c r="F154" t="inlineStr">
+      <c r="E154" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromasternNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="2" t="n">
         <v>2352</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="2" t="n">
         <v>2352</v>
       </c>
-      <c r="D155" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>320</v>
-      </c>
-      <c r="F155" t="inlineStr">
+      <c r="D155" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromasternNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="2" t="n">
         <v>2401</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="2" t="n">
         <v>2401</v>
       </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>320</v>
-      </c>
-      <c r="F156" t="inlineStr">
+      <c r="D156" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromasternNoiselevel</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="D157" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>320</v>
-      </c>
-      <c r="F157" t="inlineStr">
+      <c r="D157" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
         <is>
           <t>Shipnoisenolongerappearent</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="2" t="inlineStr">
         <is>
           <t>5196</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="2" t="n">
         <v>3546</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="2" t="n">
         <v>3545</v>
       </c>
-      <c r="D158" t="n">
-        <v>1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>320</v>
-      </c>
-      <c r="F158" t="inlineStr">
+      <c r="D158" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
         <is>
           <t>BadshotLowpressurecompressordroppedout</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="2" t="inlineStr">
         <is>
           <t>5196</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="2" t="n">
         <v>4090</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="2" t="n">
         <v>4090</v>
       </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>320</v>
-      </c>
-      <c r="F159" t="inlineStr">
+      <c r="D159" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromabeamNoiselevelubar</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="2" t="inlineStr">
         <is>
           <t>5196</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="2" t="n">
         <v>3966</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="2" t="n">
         <v>3966</v>
       </c>
-      <c r="D160" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>320</v>
-      </c>
-      <c r="F160" t="inlineStr">
+      <c r="D160" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseNolongerapparent</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>5921A</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="2" t="n">
         <v>3005</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="2" t="n">
         <v>3005</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F161" s="2" t="inlineStr">
         <is>
           <t>StreamerhitSomethinggeneratingintermittentspikes</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="2" t="inlineStr">
         <is>
           <t>5931A</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="2" t="n">
         <v>2644</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="2" t="n">
         <v>2644</v>
       </c>
-      <c r="D162" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" t="n">
-        <v>320</v>
-      </c>
-      <c r="F162" t="inlineStr">
+      <c r="D162" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="2" t="inlineStr">
         <is>
           <t>5931A</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="2" t="n">
         <v>2716</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="2" t="n">
         <v>2716</v>
       </c>
-      <c r="D163" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>320</v>
-      </c>
-      <c r="F163" t="inlineStr">
+      <c r="D163" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="2" t="inlineStr">
         <is>
           <t>5931A</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="2" t="n">
         <v>2749</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="2" t="n">
         <v>2749</v>
       </c>
-      <c r="D164" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>320</v>
-      </c>
-      <c r="F164" t="inlineStr">
+      <c r="D164" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="2" t="inlineStr">
         <is>
           <t>5931A</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="2" t="n">
         <v>2801</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="2" t="n">
         <v>2801</v>
       </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>320</v>
-      </c>
-      <c r="F165" t="inlineStr">
+      <c r="D165" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="2" t="inlineStr">
         <is>
           <t>5931A</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="2" t="n">
         <v>2891</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" s="2" t="n">
         <v>2891</v>
       </c>
-      <c r="D166" t="n">
-        <v>1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>320</v>
-      </c>
-      <c r="F166" t="inlineStr">
+      <c r="D166" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowceased</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="2" t="inlineStr">
         <is>
           <t>5939A</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="2" t="n">
         <v>2808</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="2" t="n">
         <v>2808</v>
       </c>
-      <c r="D167" t="n">
-        <v>1</v>
-      </c>
-      <c r="E167" t="n">
-        <v>320</v>
-      </c>
-      <c r="F167" t="inlineStr">
+      <c r="D167" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="2" t="inlineStr">
         <is>
           <t>5939A</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="2" t="n">
         <v>2847</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" s="2" t="n">
         <v>2847</v>
       </c>
-      <c r="D168" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" t="n">
-        <v>320</v>
-      </c>
-      <c r="F168" t="inlineStr">
+      <c r="D168" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="2" t="inlineStr">
         <is>
           <t>5939A</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="2" t="n">
         <v>2922</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="2" t="n">
         <v>2922</v>
       </c>
-      <c r="D169" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>320</v>
-      </c>
-      <c r="F169" t="inlineStr">
+      <c r="D169" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>5939A</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="2" t="n">
         <v>2954</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" s="2" t="n">
         <v>2954</v>
       </c>
-      <c r="D170" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" t="n">
-        <v>320</v>
-      </c>
-      <c r="F170" t="inlineStr">
+      <c r="D170" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
         <is>
           <t>5939A</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="2" t="n">
         <v>3021</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="2" t="n">
         <v>3021</v>
       </c>
-      <c r="D171" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" t="n">
-        <v>320</v>
-      </c>
-      <c r="F171" t="inlineStr">
+      <c r="D171" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenolongerapparent</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>5939</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="2" t="n">
         <v>2998</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" s="2" t="n">
         <v>2998</v>
       </c>
-      <c r="D172" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" t="n">
-        <v>320</v>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="D172" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
         <is>
           <t>TurnNoiseStreamerstillinturnattailend</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
         <is>
           <t>5951</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="2" t="n">
         <v>3195</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="2" t="n">
         <v>3195</v>
       </c>
-      <c r="D173" t="n">
-        <v>1</v>
-      </c>
-      <c r="E173" t="n">
-        <v>320</v>
-      </c>
-      <c r="F173" t="inlineStr">
+      <c r="D173" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseabeamoftailofstreameruB</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
         <is>
           <t>5951</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="2" t="n">
         <v>3022</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" s="2" t="n">
         <v>3022</v>
       </c>
-      <c r="D174" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" t="n">
-        <v>320</v>
-      </c>
-      <c r="F174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>Currentnoisetracesaffected</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="A175" s="2" t="inlineStr">
         <is>
           <t>5955</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="2" t="n">
         <v>2962</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="2" t="n">
         <v>2962</v>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="n">
-        <v>320</v>
-      </c>
-      <c r="F175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
         <is>
           <t>5955</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="2" t="n">
         <v>3089</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" s="2" t="n">
         <v>3089</v>
       </c>
-      <c r="D176" t="n">
-        <v>1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>320</v>
-      </c>
-      <c r="F176" t="inlineStr">
+      <c r="D176" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="A177" s="2" t="inlineStr">
         <is>
           <t>5955</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="2" t="n">
         <v>3218</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" s="2" t="n">
         <v>3218</v>
       </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>320</v>
-      </c>
-      <c r="F177" t="inlineStr">
+      <c r="D177" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="2" t="n">
         <v>3141</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" s="2" t="n">
         <v>3141</v>
       </c>
-      <c r="D178" t="n">
-        <v>1</v>
-      </c>
-      <c r="E178" t="n">
+      <c r="D178" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F178" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="2" t="n">
         <v>3170</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="2" t="n">
         <v>3170</v>
       </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" t="n">
+      <c r="D179" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="2" t="n">
         <v>3195</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" s="2" t="n">
         <v>3195</v>
       </c>
-      <c r="D180" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" t="n">
+      <c r="D180" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="2" t="n">
         <v>3205</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="2" t="n">
         <v>3205</v>
       </c>
-      <c r="D181" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" t="n">
+      <c r="D181" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="2" t="n">
         <v>3217</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="2" t="n">
         <v>3217</v>
       </c>
-      <c r="D182" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" t="n">
+      <c r="D182" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="2" t="n">
         <v>3258</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" s="2" t="n">
         <v>3258</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F183" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" s="2" t="n">
         <v>3277</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" s="2" t="n">
         <v>3277</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="2" t="inlineStr">
         <is>
           <t>5958</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="2" t="n">
         <v>3325</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="2" t="n">
         <v>3325</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F185" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>5961</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="2" t="n">
         <v>3427</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="2" t="n">
         <v>3427</v>
       </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" t="n">
-        <v>320</v>
-      </c>
-      <c r="F186" t="inlineStr">
+      <c r="D186" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
         <is>
           <t>ShipnoiseFromaheadNoiselevelubarmoveout</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="A187" s="2" t="inlineStr">
         <is>
           <t>5961</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="2" t="n">
         <v>3405</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" s="2" t="n">
         <v>3405</v>
       </c>
-      <c r="D187" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>320</v>
-      </c>
-      <c r="F187" t="inlineStr">
+      <c r="D187" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
         <is>
           <t>Shipnoisenolongerobserved</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="2" t="inlineStr">
         <is>
           <t>5966</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="2" t="n">
         <v>3181</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" s="2" t="n">
         <v>3181</v>
       </c>
-      <c r="D188" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" t="n">
-        <v>320</v>
-      </c>
-      <c r="F188" t="inlineStr">
+      <c r="D188" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="2" t="inlineStr">
         <is>
           <t>5966</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="2" t="n">
         <v>3267</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" s="2" t="n">
         <v>3267</v>
       </c>
-      <c r="D189" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" t="n">
-        <v>320</v>
-      </c>
-      <c r="F189" t="inlineStr">
+      <c r="D189" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>CurrentnoiseNowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="2" t="inlineStr">
         <is>
           <t>5966</t>
         </is>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" s="2" t="n">
         <v>3413</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" s="2" t="n">
         <v>3413</v>
       </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>320</v>
-      </c>
-      <c r="F190" t="inlineStr">
+      <c r="D190" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseceased</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="A191" s="2" t="inlineStr">
         <is>
           <t>5981</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="2" t="n">
         <v>3296</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" s="2" t="n">
         <v>3296</v>
       </c>
-      <c r="D191" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" t="n">
-        <v>320</v>
-      </c>
-      <c r="F191" t="inlineStr">
+      <c r="D191" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
         <is>
           <t>Currentnoiseaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="A192" s="2" t="inlineStr">
         <is>
           <t>5981</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" s="2" t="n">
         <v>3241</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" s="2" t="n">
         <v>3241</v>
       </c>
-      <c r="D192" t="n">
-        <v>1</v>
-      </c>
-      <c r="E192" t="n">
-        <v>320</v>
-      </c>
-      <c r="F192" t="inlineStr">
+      <c r="D192" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
         <is>
           <t>Currentnoisenowaffectingtraces</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="2" t="inlineStr">
         <is>
           <t>5986</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" s="2" t="n">
         <v>3415</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193" s="2" t="n">
         <v>3415</v>
       </c>
-      <c r="D193" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" t="n">
+      <c r="D193" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="2" t="inlineStr">
         <is>
           <t>5986</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="2" t="n">
         <v>3422</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" s="2" t="n">
         <v>3422</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F194" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="2" t="inlineStr">
         <is>
           <t>5986</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="2" t="n">
         <v>3460</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" s="2" t="n">
         <v>3460</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="F195" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="2" t="inlineStr">
         <is>
           <t>5986</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="2" t="n">
         <v>3485</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196" s="2" t="n">
         <v>3485</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F196" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="2" t="inlineStr">
         <is>
           <t>5986</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="2" t="n">
         <v>3495</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" s="2" t="n">
         <v>3495</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseCurrentnoisegone</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="2" t="inlineStr">
         <is>
           <t>5991</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="2" t="n">
         <v>3330</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" s="2" t="n">
         <v>3290</v>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="n">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseVeryslightcurrentnoiseaffectedonly</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="2" t="inlineStr">
         <is>
           <t>5996</t>
         </is>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" s="2" t="n">
         <v>3514</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" s="2" t="n">
         <v>3514</v>
       </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="n">
-        <v>320</v>
-      </c>
-      <c r="F199" t="inlineStr">
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
         <is>
           <t>CurrentNoiseAffectingtracesuBrms</t>
         </is>
@@ -5223,129 +5240,133 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Lines with reported turn noise shots</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Line_Number</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>5005</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>5021</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>5037</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>5045</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>5065</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>5093</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>5136A</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>5136B</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>5148A</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>5172</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>5184</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>5929</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>5939A</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>5939</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>5942</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>5951</t>
         </is>
